--- a/data/trans_bre/IP18A01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP18A01-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-11,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>11,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-21,05%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-14,3%</t>
+          <t>185,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 4,89</t>
+          <t>-10,0; 11,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 2,55</t>
+          <t>-29,78; -2,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 3,21</t>
+          <t>-3,61; 33,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 9,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-44,09; 129,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-56,16; 43,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-51,24; 48,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-78,65; 299,51</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,65%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>-21,05%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>-14,3%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>96,07%</t>
+          <t>6,73%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 4,56</t>
+          <t>-3,28; 4,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 6,77</t>
+          <t>-6,29; 2,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 7,38</t>
+          <t>-5,42; 3,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 17,34</t>
+          <t>-9,01; 9,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-43,32; 48,13</t>
+          <t>-44,09; 129,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,73; 70,77</t>
+          <t>-56,16; 43,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-28,14; 116,22</t>
+          <t>-51,24; 48,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,65; 299,51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-11,5</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,41</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-3,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>185,82%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>276,88%</t>
         </is>
       </c>
     </row>
@@ -968,37 +968,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 11,94</t>
+          <t>-5,15; 6,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,78; -2,6</t>
+          <t>-5,91; 4,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 33,44</t>
+          <t>-4,68; 6,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 17,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,72; 92,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,71; 78,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,5; 121,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>-8,65%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,77%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>26,5%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>276,88%</t>
+          <t>96,07%</t>
         </is>
       </c>
     </row>
@@ -1068,37 +1068,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 6,52</t>
+          <t>-6,38; 4,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 4,97</t>
+          <t>-4,22; 6,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 6,29</t>
+          <t>-3,06; 7,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 17,54</t>
+          <t>-4,87; 17,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-40,72; 92,14</t>
+          <t>-43,32; 48,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-47,71; 78,61</t>
+          <t>-29,73; 70,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-44,5; 121,07</t>
+          <t>-28,14; 116,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">

--- a/data/trans_bre/IP18A01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP18A01-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 11,94</t>
+          <t>-6,98; 12,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-29,78; -2,6</t>
+          <t>-28,75; -2,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 3,6</t>
+          <t>-5,61; 3,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 10,18</t>
+          <t>-3,94; 10,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 4,79</t>
+          <t>-7,6; 5,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,23</t>
+          <t>0,0; 40,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-74,07; 163,68</t>
+          <t>-76,84; 171,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,4; 150,23</t>
+          <t>-31,99; 155,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-57,46; 76,26</t>
+          <t>-57,49; 84,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 4,89</t>
+          <t>-2,59; 5,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 2,55</t>
+          <t>-6,14; 2,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 3,21</t>
+          <t>-5,75; 2,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 9,95</t>
+          <t>-8,44; 10,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,09; 129,57</t>
+          <t>-36,53; 153,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-56,16; 43,53</t>
+          <t>-53,95; 39,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-51,24; 48,7</t>
+          <t>-50,39; 46,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-78,65; 299,51</t>
+          <t>-78,66; 280,17</t>
         </is>
       </c>
     </row>
@@ -968,37 +968,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 6,52</t>
+          <t>-5,54; 6,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 4,97</t>
+          <t>-5,4; 5,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 6,29</t>
+          <t>-4,36; 5,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 17,54</t>
+          <t>-1,23; 16,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,72; 92,14</t>
+          <t>-44,37; 97,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,71; 78,61</t>
+          <t>-46,84; 89,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-44,5; 121,07</t>
+          <t>-40,69; 104,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,37 +1068,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 4,56</t>
+          <t>-6,6; 4,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 6,77</t>
+          <t>-4,5; 6,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 7,38</t>
+          <t>-3,26; 7,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 17,34</t>
+          <t>-4,71; 16,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-43,32; 48,13</t>
+          <t>-43,28; 45,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-29,73; 70,77</t>
+          <t>-30,73; 74,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-28,14; 116,22</t>
+          <t>-27,31; 116,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 2,63</t>
+          <t>-2,37; 2,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,54</t>
+          <t>-2,97; 2,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 3,37</t>
+          <t>-2,01; 3,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 9,5</t>
+          <t>-1,49; 8,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,3; 40,07</t>
+          <t>-25,25; 40,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,77; 28,98</t>
+          <t>-25,78; 26,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 45,02</t>
+          <t>-20,03; 44,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-34,85; 416,38</t>
+          <t>-35,07; 367,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP18A01-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 12,08</t>
+          <t>-7,05; 12,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,75; -2,65</t>
+          <t>-27,5; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 33,44</t>
+          <t>-4,47; 33,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 3,91</t>
+          <t>-5,4; 3,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 10,25</t>
+          <t>-3,92; 10,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 5,35</t>
+          <t>-7,84; 5,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,14</t>
+          <t>0,0; 36,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-76,84; 171,29</t>
+          <t>-79,12; 164,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,99; 155,5</t>
+          <t>-31,77; 158,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-57,49; 84,77</t>
+          <t>-59,54; 74,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 5,56</t>
+          <t>-3,44; 4,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 2,51</t>
+          <t>-6,43; 2,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 2,77</t>
+          <t>-5,46; 3,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 10,79</t>
+          <t>-8,17; 9,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-36,53; 153,04</t>
+          <t>-43,47; 122,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-53,95; 39,64</t>
+          <t>-55,99; 36,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-50,39; 46,14</t>
+          <t>-50,92; 45,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-78,66; 280,17</t>
+          <t>-76,38; 269,49</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,37 +968,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 6,88</t>
+          <t>-5,17; 6,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 5,07</t>
+          <t>-6,0; 4,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 5,8</t>
+          <t>-4,48; 6,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 16,09</t>
+          <t>-1,28; 15,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,37; 97,59</t>
+          <t>-41,01; 96,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,84; 89,47</t>
+          <t>-51,09; 87,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,69; 104,12</t>
+          <t>-43,38; 116,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,37 +1068,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 4,36</t>
+          <t>-6,69; 4,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 6,68</t>
+          <t>-4,65; 6,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 7,71</t>
+          <t>-2,96; 7,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 16,89</t>
+          <t>-4,46; 17,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-43,28; 45,93</t>
+          <t>-44,11; 40,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-30,73; 74,9</t>
+          <t>-31,25; 74,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-27,31; 116,97</t>
+          <t>-28,64; 119,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 2,87</t>
+          <t>-2,59; 2,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 2,29</t>
+          <t>-2,92; 2,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 3,22</t>
+          <t>-1,95; 3,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 8,65</t>
+          <t>-1,41; 8,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 40,34</t>
+          <t>-27,25; 37,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,78; 26,2</t>
+          <t>-24,98; 26,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 44,54</t>
+          <t>-19,99; 45,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,07; 367,24</t>
+          <t>-29,4; 358,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP18A01-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-11,5</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,41</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>-12,96%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>185,82%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 12,07</t>
+          <t>-4,65; 3,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-27,5; 0,0</t>
+          <t>-5,76; 6,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 33,07</t>
+          <t>-5,45; 7,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 26,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,03; 123,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,08; 107,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,11; 130,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,76</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-17,19%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,69%</t>
+          <t>-21,05%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-14,59%</t>
+          <t>-14,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>6,83%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 3,55</t>
+          <t>-3,28; 4,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 10,2</t>
+          <t>-6,29; 2,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 5,05</t>
+          <t>-5,42; 3,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,58</t>
+          <t>-8,56; 9,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-79,12; 164,02</t>
+          <t>-44,09; 129,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,77; 158,8</t>
+          <t>-56,16; 43,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-59,54; 74,59</t>
+          <t>-51,24; 48,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,1; 284,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-21,05%</t>
+          <t>-3,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-14,3%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>275,61%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 4,84</t>
+          <t>-5,15; 6,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 2,37</t>
+          <t>-5,91; 4,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 3,2</t>
+          <t>-4,68; 6,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 9,9</t>
+          <t>-1,27; 16,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-43,47; 122,65</t>
+          <t>-40,72; 92,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-55,99; 36,43</t>
+          <t>-47,71; 78,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-50,92; 45,21</t>
+          <t>-44,5; 121,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-76,38; 269,49</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>-8,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,77%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>26,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>276,88%</t>
+          <t>97,48%</t>
         </is>
       </c>
     </row>
@@ -968,37 +968,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 6,61</t>
+          <t>-6,38; 4,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 4,93</t>
+          <t>-4,22; 6,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 6,16</t>
+          <t>-3,06; 7,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 15,85</t>
+          <t>-4,75; 17,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,01; 96,58</t>
+          <t>-43,32; 48,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,09; 87,72</t>
+          <t>-29,73; 70,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-43,38; 116,39</t>
+          <t>-28,14; 116,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-8,65%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>-1,99%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>96,07%</t>
+          <t>75,78%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 4,18</t>
+          <t>-2,41; 2,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 6,47</t>
+          <t>-2,91; 2,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 7,62</t>
+          <t>-1,71; 3,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 17,64</t>
+          <t>-1,5; 9,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-44,11; 40,94</t>
+          <t>-26,3; 40,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-31,25; 74,64</t>
+          <t>-25,77; 28,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-28,64; 119,56</t>
+          <t>-17,06; 45,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,52; 420,35</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,2</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,14</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>2,23%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-1,99%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>7,48%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>75,87%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-2,59; 2,62</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 2,28</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,95; 3,32</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-1,41; 8,89</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-27,25; 37,69</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-24,98; 26,09</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-19,99; 45,87</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-29,4; 358,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
